--- a/xlsx/政治家_intext.xlsx
+++ b/xlsx/政治家_intext.xlsx
@@ -29,13 +29,13 @@
     <t>政治</t>
   </si>
   <si>
-    <t>政策_政策_政治學_政治家</t>
+    <t>政策_政策_政治学_政治家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E8%A9%9E</t>
   </si>
   <si>
-    <t>名詞</t>
+    <t>名词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%AE%A2</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%95%E5%83%9A</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E5%95%8F</t>
   </si>
   <si>
-    <t>顧問</t>
+    <t>顾问</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF</t>
@@ -395,25 +395,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A</t>
   </si>
   <si>
-    <t>資訊</t>
+    <t>资讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學</t>
+    <t>科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>體育</t>
+    <t>体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
